--- a/Documents/Exam Questions/2022 to 2023/Q4 Winter.xlsx
+++ b/Documents/Exam Questions/2022 to 2023/Q4 Winter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\GD23\Documents\Exam Questions\2022 to 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{519A1B9A-8D4A-4A4E-B4CB-6644204C504D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E910D-DAF1-4434-836A-D106ACB89A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{307E4EA1-8A47-4983-A2FB-B2E70632DD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,19 +35,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="19">
   <si>
     <t>(i)</t>
   </si>
   <si>
     <t>A FSM is   (1)  A Set of States  (Behaviours of NPC  Patrol, Chase Attack etc..)             (2)  A set of transitions (NPC_Sees_Target, NPC_attacked, etc.  )                                         (3)  A transition function State * transition  ----&gt;   State                                                (4) A start state</t>
   </si>
+  <si>
+    <t>(ii)</t>
+  </si>
+  <si>
+    <t>https://github.com/Robert-Sheehy/GD_Group_Project_2023/blob/main/GD2023/Assets/NPCAI.cs</t>
+  </si>
+  <si>
+    <t>(iii)</t>
+  </si>
+  <si>
+    <t>Hierarchial FSM</t>
+  </si>
+  <si>
+    <t>Has FSMs within the states of the FSM</t>
+  </si>
+  <si>
+    <t>Cuts down on the code and the numbers of transitions/states</t>
+  </si>
+  <si>
+    <t>Markov Models</t>
+  </si>
+  <si>
+    <t>Uses random numbers to help choose next state/behaviour/action</t>
+  </si>
+  <si>
+    <t>Less predictable</t>
+  </si>
+  <si>
+    <t>A search tree is created from the current move position, in which, for each node all possible next moves are the children of the current node.</t>
+  </si>
+  <si>
+    <t>The leaves of this tree correspond to an end game, we use the Utility Function to assign a number to the leaves, typically +1 for win, 0 for draw, -1 for a loss</t>
+  </si>
+  <si>
+    <t>The Max/Min algorithm is used to "filter" these numbers back up to the root and determine the appropriate move.</t>
+  </si>
+  <si>
+    <t>The search tree becomes too big to generate/store/search.</t>
+  </si>
+  <si>
+    <t>The evaluation function is applied at a given depth, where higher values represepent better positions, and the min max will filter those values back up as with the Utility function.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>See sheet 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +106,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,16 +155,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,6 +331,1137 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98407</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F5C252-1843-4C64-BCCE-31A5A9BCD602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="5563376" cy="1105054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105468</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A6E0F0-154B-45A5-AAFF-55E509A7847A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607219" y="9906000"/>
+          <a:ext cx="4963218" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134047</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D71299A-3DE6-47EF-B5FB-3B687385CD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607219" y="11049000"/>
+          <a:ext cx="4991797" cy="771633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>210257</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25ED8AE-DFEB-443E-A28A-AAEC26301C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607219" y="12763500"/>
+          <a:ext cx="5068007" cy="2057687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>196453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B37E0A-5D53-4C15-B342-2E20B0901660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232297" y="3018234"/>
+          <a:ext cx="0" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86916</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86916</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1264F27C-2AB2-404E-B790-FA58B84A56CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2182416" y="3027759"/>
+          <a:ext cx="0" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>126206</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>191691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>126206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1464F939-4158-4EF6-AB16-4DA65056A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3174206" y="3013472"/>
+          <a:ext cx="0" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82153</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>201216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82153</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B6FEDE-B9C8-4FE8-9BBE-9CDD9B4CA84B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892153" y="3022997"/>
+          <a:ext cx="0" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A817CC-F5D2-4C7A-B7C8-D59006CA75AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="3026569"/>
+          <a:ext cx="0" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6016D3C3-38C1-4DB6-986C-136F999CCB40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5828109" y="3012281"/>
+          <a:ext cx="0" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0378C3E-676F-4507-A234-0712536D88E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1321594" y="2220516"/>
+          <a:ext cx="738187" cy="172640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A76D76-F751-42C7-B0A3-65A5A4BA9B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178844" y="2226469"/>
+          <a:ext cx="5953" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967C8AB7-30F8-492C-A1C9-338C35DE540A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3244453" y="2244328"/>
+          <a:ext cx="119063" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE1F93B-50E5-407B-BA3C-F454E49AE92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3643312" y="2256234"/>
+          <a:ext cx="202407" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>86916</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15479</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495DFD5E-7512-424C-BA3C-2CA32A7B040E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4849416" y="2230040"/>
+          <a:ext cx="119063" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1EE85E-AAB7-440F-92C7-907E20DA7118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5355431" y="2253853"/>
+          <a:ext cx="202407" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184547</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE29BD0-28CF-4585-B9AD-5E09287B7B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2297906" y="1422797"/>
+          <a:ext cx="1125141" cy="178594"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3422A77B-42F8-4641-B554-34AA962D18E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577828" y="1434703"/>
+          <a:ext cx="1208484" cy="166688"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC57F56-B809-4390-832E-62511DAFC56F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3512344" y="1458516"/>
+          <a:ext cx="29765" cy="148828"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3AE2C4-DF0B-4760-B900-68083BDF9477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1297781" y="619125"/>
+          <a:ext cx="2631281" cy="160734"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89298</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189D7B4B-399A-4F7F-A5AF-805BC0D2624D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3512344" y="642937"/>
+          <a:ext cx="577454" cy="154782"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>136922</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA42939-CB03-4DFA-990F-FCE552EFD082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4179094" y="625078"/>
+          <a:ext cx="910828" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134541</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>160734</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A40573-0B45-4323-A55A-778066F8B9AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325541" y="586978"/>
+          <a:ext cx="1931193" cy="192881"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -488,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B0D90-B9CB-4200-AB26-73A3AABE4C5E}">
-  <dimension ref="B20:J23"/>
+  <dimension ref="B20:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,12 +1817,772 @@
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
     </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="C20:J23"/>
+    <mergeCell ref="B41:I43"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="B50:I51"/>
+    <mergeCell ref="B64:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CCF3B6-1105-4F94-AE81-92EE4F0F2431}">
+  <dimension ref="E1:AJ20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="5:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="5:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="5:36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="5:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="R5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6" spans="5:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="Z6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AG6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="5:36" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="5:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="5:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="5:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="5:36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="5:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="5:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="5:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="5:36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="6:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="6:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="6:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="6:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>